--- a/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -720,19 +731,20 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -755,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -775,7 +787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -795,7 +807,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -815,7 +827,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -835,7 +847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -855,7 +867,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -875,7 +887,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -895,7 +907,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -915,7 +927,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -935,7 +947,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -955,7 +967,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -975,7 +987,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -1335,7 +1347,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -1355,7 +1367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1395,7 +1407,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -1455,7 +1467,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -1495,7 +1507,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -1516,6 +1528,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -391,6 +391,15 @@
   </si>
   <si>
     <t>Cell Press</t>
+  </si>
+  <si>
+    <t>Chem Catalysis</t>
+  </si>
+  <si>
+    <t>2667-1093</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/chem-catalysis/home</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -728,11 +757,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -952,13 +979,13 @@
         <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>121</v>
@@ -972,13 +999,13 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>121</v>
@@ -992,13 +1019,13 @@
         <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -1012,13 +1039,13 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>121</v>
@@ -1032,13 +1059,13 @@
         <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>121</v>
@@ -1052,13 +1079,13 @@
         <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -1072,13 +1099,13 @@
         <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
         <v>121</v>
@@ -1092,13 +1119,13 @@
         <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>121</v>
@@ -1112,13 +1139,13 @@
         <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -1132,13 +1159,13 @@
         <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -1152,13 +1179,13 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -1172,13 +1199,13 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
         <v>121</v>
@@ -1192,13 +1219,13 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>121</v>
@@ -1212,13 +1239,13 @@
         <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
         <v>121</v>
@@ -1232,13 +1259,13 @@
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
         <v>121</v>
@@ -1252,13 +1279,13 @@
         <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
         <v>121</v>
@@ -1272,13 +1299,13 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
         <v>121</v>
@@ -1292,13 +1319,13 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -1312,13 +1339,13 @@
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
         <v>121</v>
@@ -1332,13 +1359,13 @@
         <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
         <v>121</v>
@@ -1352,13 +1379,13 @@
         <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
         <v>121</v>
@@ -1372,13 +1399,13 @@
         <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
         <v>121</v>
@@ -1392,13 +1419,13 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
         <v>121</v>
@@ -1412,13 +1439,13 @@
         <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
         <v>121</v>
@@ -1432,13 +1459,13 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
         <v>121</v>
@@ -1452,13 +1479,13 @@
         <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s">
         <v>121</v>
@@ -1472,13 +1499,13 @@
         <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
         <v>121</v>
@@ -1492,13 +1519,13 @@
         <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
         <v>121</v>
@@ -1512,23 +1539,46 @@
         <v>123</v>
       </c>
       <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
         <v>118</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>120</v>
       </c>
-      <c r="F39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B42:B1048576 B1:B40">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D1048576 D1:D40">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_0BAB592D8ABFE31A5A142A9A16CF3A51EFB459EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA577BF0-7576-4C70-AE8E-A2ED2B799AA1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -42,15 +43,6 @@
     <t>Imprint</t>
   </si>
   <si>
-    <t>0006-3495</t>
-  </si>
-  <si>
-    <t>Biophysical Journal</t>
-  </si>
-  <si>
-    <t>https://www.cell.com/biophysj</t>
-  </si>
-  <si>
     <t>1535-6108</t>
   </si>
   <si>
@@ -177,24 +169,6 @@
     <t>https://www.cell.com/molecular-cell</t>
   </si>
   <si>
-    <t>1674-2052</t>
-  </si>
-  <si>
-    <t>Molecular Plant</t>
-  </si>
-  <si>
-    <t>https://www.cell.com/molecular-plant</t>
-  </si>
-  <si>
-    <t>1525-0016</t>
-  </si>
-  <si>
-    <t>Molecular Therapy</t>
-  </si>
-  <si>
-    <t>https://www.cell.com/molecular-therapy-family</t>
-  </si>
-  <si>
     <t>0896-6273</t>
   </si>
   <si>
@@ -220,15 +194,6 @@
   </si>
   <si>
     <t>https://www.cell.com/structure</t>
-  </si>
-  <si>
-    <t>0002-9297</t>
-  </si>
-  <si>
-    <t>The American Journal of Human Genetics</t>
-  </si>
-  <si>
-    <t>https://www.cell.com/ajhg</t>
   </si>
   <si>
     <t>0968-0004</t>
@@ -405,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,17 +415,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -756,10 +711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -796,7 +753,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -808,15 +765,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -828,15 +785,15 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -848,15 +805,15 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -868,15 +825,15 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -888,15 +845,15 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -908,15 +865,15 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -928,15 +885,15 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -948,55 +905,55 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -1008,15 +965,15 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1028,15 +985,15 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -1048,15 +1005,15 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -1068,15 +1025,15 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -1088,15 +1045,15 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -1108,15 +1065,15 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -1128,15 +1085,15 @@
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -1148,15 +1105,15 @@
         <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -1168,15 +1125,15 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -1188,15 +1145,15 @@
         <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -1208,15 +1165,15 @@
         <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -1228,15 +1185,15 @@
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -1248,15 +1205,15 @@
         <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -1268,15 +1225,15 @@
         <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>76</v>
@@ -1288,15 +1245,15 @@
         <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>79</v>
@@ -1308,15 +1265,15 @@
         <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>82</v>
@@ -1328,15 +1285,15 @@
         <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>85</v>
@@ -1348,15 +1305,15 @@
         <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>88</v>
@@ -1368,15 +1325,15 @@
         <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>91</v>
@@ -1388,15 +1345,15 @@
         <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
         <v>94</v>
@@ -1408,15 +1365,15 @@
         <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>97</v>
@@ -1428,15 +1385,15 @@
         <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
         <v>100</v>
@@ -1448,15 +1405,15 @@
         <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
         <v>103</v>
@@ -1468,15 +1425,15 @@
         <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
         <v>106</v>
@@ -1488,97 +1445,17 @@
         <v>108</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B42:B1048576 B1:B40">
+  <conditionalFormatting sqref="B38:B1048576 B1:B36">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D1048576 D1:D40">
+  <conditionalFormatting sqref="D38:D1048576 D1:D36">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_0BAB592D8ABFE31A5A142A9A16CF3A51EFB459EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA577BF0-7576-4C70-AE8E-A2ED2B799AA1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_0BAB592D8ABFE31A5A142A9A16CF3A51EFB459EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C501DA32-141C-4253-9366-2B77069CCF6B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -365,6 +365,42 @@
   </si>
   <si>
     <t>https://www.cell.com/chem-catalysis/home</t>
+  </si>
+  <si>
+    <t>0002-9297</t>
+  </si>
+  <si>
+    <t>The American Journal of Human Genetics</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00029297</t>
+  </si>
+  <si>
+    <t>0006-3495</t>
+  </si>
+  <si>
+    <t>Biophysical Journal</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/biophysj</t>
+  </si>
+  <si>
+    <t>1674-2052</t>
+  </si>
+  <si>
+    <t>Molecular Plant</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/molecular-plant</t>
+  </si>
+  <si>
+    <t>1525-0016</t>
+  </si>
+  <si>
+    <t>Molecular Therapy</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/molecular-therapy-family</t>
   </si>
 </sst>
 </file>
@@ -712,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,6 +1487,86 @@
         <v>110</v>
       </c>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B38:B1048576 B1:B36">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_0BAB592D8ABFE31A5A142A9A16CF3A51EFB459EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C501DA32-141C-4253-9366-2B77069CCF6B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0BAB592D8ABFE31A5A142A9A16CF3A51EFB459EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A42D09-B3C8-4CB7-A687-4A0AE59D1913}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="121">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -178,15 +178,6 @@
     <t>https://www.cell.com/neuron</t>
   </si>
   <si>
-    <t>2590-3322</t>
-  </si>
-  <si>
-    <t>One Earth</t>
-  </si>
-  <si>
-    <t>https://www.cell.com/one-earth</t>
-  </si>
-  <si>
     <t>0969-2126</t>
   </si>
   <si>
@@ -356,15 +347,6 @@
   </si>
   <si>
     <t>Cell Press</t>
-  </si>
-  <si>
-    <t>Chem Catalysis</t>
-  </si>
-  <si>
-    <t>2667-1093</t>
-  </si>
-  <si>
-    <t>https://www.cell.com/chem-catalysis/home</t>
   </si>
   <si>
     <t>0002-9297</t>
@@ -451,7 +433,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -483,6 +483,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9283EDC-2F62-4E9A-BFD5-35B9646BD416}" name="Table1" displayName="Table1" ref="A1:G38" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G38" xr:uid="{D9283EDC-2F62-4E9A-BFD5-35B9646BD416}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F091F664-7FB9-4432-9505-FE5AC53044DA}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{A60331D9-E27B-4001-93DA-FD67EF87628A}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{C348720E-F305-4DED-AB2A-CF0B663FCE90}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{B0B38E96-BF0A-4CCA-8AE1-E32FA3586C01}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{EDEAEEF5-4C55-451B-87DB-AD25A6F1E23A}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{51870F94-E522-4FD5-8421-3217B7B92873}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{42B8FF21-79EB-4135-AC25-A8B16A2B8893}" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +777,8 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,7 +806,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -801,15 +818,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -821,15 +838,15 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -841,15 +858,15 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -861,15 +878,15 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -881,15 +898,15 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -901,15 +918,15 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -921,15 +938,15 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -941,555 +958,555 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
         <v>111</v>
       </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>115</v>
@@ -1501,15 +1518,15 @@
         <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
         <v>118</v>
@@ -1521,60 +1538,23 @@
         <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B38:B1048576 B1:B36">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B36:B1048576 B1:B34">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D1048576 D1:D36">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D36:D1048576 D1:D34">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_cellpress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_0BAB592D8ABFE31A5A142A9A16CF3A51EFB459EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A42D09-B3C8-4CB7-A687-4A0AE59D1913}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_0BAB592D8ABFE31A5A142A9A16CF3A51EFB459EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA462E8F-1CCF-4EF1-9199-E0D1E71BD387}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="125">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -383,22 +383,26 @@
   </si>
   <si>
     <t>https://www.cell.com/molecular-therapy-family</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>2590-3322</t>
+  </si>
+  <si>
+    <t>One Earth</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/25903322</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -426,53 +430,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -486,16 +450,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9283EDC-2F62-4E9A-BFD5-35B9646BD416}" name="Table1" displayName="Table1" ref="A1:G38" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G38" xr:uid="{D9283EDC-2F62-4E9A-BFD5-35B9646BD416}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{658FC116-D3B3-49C7-AF37-B0CE746EE2F5}" name="Table3" displayName="Table3" ref="A1:G39" totalsRowShown="0">
+  <autoFilter ref="A1:G39" xr:uid="{658FC116-D3B3-49C7-AF37-B0CE746EE2F5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
+    <sortCondition ref="D1:D39"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F091F664-7FB9-4432-9505-FE5AC53044DA}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{A60331D9-E27B-4001-93DA-FD67EF87628A}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{C348720E-F305-4DED-AB2A-CF0B663FCE90}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{B0B38E96-BF0A-4CCA-8AE1-E32FA3586C01}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{EDEAEEF5-4C55-451B-87DB-AD25A6F1E23A}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{51870F94-E522-4FD5-8421-3217B7B92873}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{42B8FF21-79EB-4135-AC25-A8B16A2B8893}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{09E8F316-6555-4DFD-B9F4-3C5B07477823}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{43F6E88B-0A95-471E-A6E6-76E7E01DB107}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{516BE30F-2FB0-48F0-AAD7-9013584E20D7}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{8E9479B1-74E6-4CB5-BC3F-80FB5B3474C0}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{032CB55E-CFCE-4BAA-998C-E6CBD1141976}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{82E579DE-2139-4017-AD23-C12D23260E1E}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{7320E815-78DE-4D64-8A1F-705D2DEB0204}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -763,8 +730,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDA2395-9F28-4DC7-8B32-E013BF29B162}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -772,35 +739,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -809,13 +776,13 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
         <v>106</v>
@@ -829,13 +796,13 @@
         <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>106</v>
@@ -849,13 +816,13 @@
         <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>106</v>
@@ -869,13 +836,13 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>106</v>
@@ -889,13 +856,13 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>106</v>
@@ -909,13 +876,13 @@
         <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -929,13 +896,13 @@
         <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -949,13 +916,13 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>106</v>
@@ -969,13 +936,13 @@
         <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>106</v>
@@ -989,13 +956,13 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>106</v>
@@ -1009,13 +976,13 @@
         <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>106</v>
@@ -1029,13 +996,13 @@
         <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -1049,13 +1016,13 @@
         <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -1069,13 +1036,13 @@
         <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>106</v>
@@ -1089,13 +1056,13 @@
         <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -1109,13 +1076,13 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
         <v>106</v>
@@ -1129,13 +1096,13 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
         <v>106</v>
@@ -1149,13 +1116,13 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
         <v>106</v>
@@ -1169,13 +1136,13 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
         <v>106</v>
@@ -1186,16 +1153,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -1209,13 +1176,13 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -1229,13 +1196,13 @@
         <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
         <v>106</v>
@@ -1249,13 +1216,13 @@
         <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
         <v>106</v>
@@ -1269,13 +1236,13 @@
         <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
         <v>106</v>
@@ -1289,13 +1256,13 @@
         <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>106</v>
@@ -1309,13 +1276,13 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
         <v>106</v>
@@ -1329,13 +1296,13 @@
         <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
         <v>106</v>
@@ -1349,13 +1316,13 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
         <v>106</v>
@@ -1369,13 +1336,13 @@
         <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
         <v>106</v>
@@ -1389,13 +1356,13 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
         <v>106</v>
@@ -1409,13 +1376,13 @@
         <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
         <v>106</v>
@@ -1429,13 +1396,13 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
         <v>106</v>
@@ -1449,13 +1416,13 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
         <v>106</v>
@@ -1469,13 +1436,13 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
         <v>106</v>
@@ -1489,13 +1456,13 @@
         <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
         <v>106</v>
@@ -1509,13 +1476,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>106</v>
@@ -1529,13 +1496,13 @@
         <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
         <v>106</v>
@@ -1544,17 +1511,30 @@
         <v>107</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B36:B1048576 B1:B34">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D1048576 D1:D34">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>